--- a/goodput/show-64.xlsx
+++ b/goodput/show-64.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\line plot draw\Draw-Python-plot\goodput\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0FD06-492A-45FD-B8A1-2A9D55F5621A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RC</t>
   </si>
@@ -46,12 +65,41 @@
     <t>ERD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>path 2</t>
+  </si>
+  <si>
+    <t>path 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path 4</t>
+  </si>
+  <si>
+    <t>path 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path 6</t>
+  </si>
+  <si>
+    <t>path 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +138,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -103,12 +154,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -125,6 +194,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -223,6 +293,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C2A-432D-968B-DC77818B788A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -322,6 +398,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C2A-432D-968B-DC77818B788A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -395,7 +477,7 @@
                   <c:v>95.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.25</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>85.57</c:v>
@@ -404,23 +486,29 @@
                   <c:v>77.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.680000000000007</c:v>
+                  <c:v>64.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.41</c:v>
+                  <c:v>60.41</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>56.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.489999999999995</c:v>
+                  <c:v>54.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104.53</c:v>
+                  <c:v>52.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C2A-432D-968B-DC77818B788A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -466,7 +554,20 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -489,7 +590,20 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -512,7 +626,20 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -535,23 +662,60 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -574,18 +738,61 @@
                 </c:rich>
               </c:tx>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6C2A-432D-968B-DC77818B788A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -671,7 +878,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-6C2A-432D-968B-DC77818B788A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="81825792"/>
         <c:axId val="81827712"/>
       </c:scatterChart>
@@ -680,6 +901,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -712,9 +934,11 @@
               <c:y val="0.90000516816701359"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="81827712"/>
         <c:crosses val="autoZero"/>
@@ -725,6 +949,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -760,9 +985,11 @@
               <c:y val="0.28122431982457463"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="81825792"/>
         <c:crosses val="autoZero"/>
@@ -775,9 +1002,11 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -804,7 +1033,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -823,9 +1058,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -863,7 +1098,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -897,6 +1132,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -931,9 +1167,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,25 +1343,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1141,6 +1378,15 @@
         <v>4</v>
       </c>
       <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1400,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -1170,6 +1416,18 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <f>C4-7</f>
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <f>E4</f>
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <f>D4-4</f>
+        <v>86</v>
+      </c>
       <c r="M4">
         <v>90</v>
       </c>
@@ -1180,7 +1438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>15</v>
       </c>
@@ -1196,6 +1454,18 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="0">C5-7</f>
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I14" si="1">E5</f>
+        <v>99.17</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J14" si="2">D5-4</f>
+        <v>95.17</v>
+      </c>
       <c r="M5">
         <v>87</v>
       </c>
@@ -1206,7 +1476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>25</v>
       </c>
@@ -1222,6 +1492,18 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>95.11</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>91.11</v>
+      </c>
       <c r="M6">
         <v>89</v>
       </c>
@@ -1232,7 +1514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>35</v>
       </c>
@@ -1243,11 +1525,23 @@
         <v>100.98</v>
       </c>
       <c r="E7">
-        <v>112.25</v>
+        <v>92.25</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>92.25</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>96.98</v>
+      </c>
       <c r="M7">
         <v>83</v>
       </c>
@@ -1258,7 +1552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>38</v>
       </c>
@@ -1274,6 +1568,18 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>85.57</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>80.2</v>
+      </c>
       <c r="M8">
         <v>80</v>
       </c>
@@ -1284,7 +1590,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>41</v>
       </c>
@@ -1300,6 +1606,18 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>77.010000000000005</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>71.319999999999993</v>
+      </c>
       <c r="M9">
         <v>68</v>
       </c>
@@ -1310,7 +1628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>42</v>
       </c>
@@ -1321,11 +1639,23 @@
         <v>69.13</v>
       </c>
       <c r="E10">
-        <v>70.680000000000007</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>64.680000000000007</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>65.13</v>
+      </c>
       <c r="M10">
         <v>63</v>
       </c>
@@ -1336,7 +1666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>44</v>
       </c>
@@ -1347,11 +1677,23 @@
         <v>55.19</v>
       </c>
       <c r="E11">
-        <v>57.41</v>
+        <v>60.41</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>60.41</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>51.19</v>
+      </c>
       <c r="M11">
         <v>46</v>
       </c>
@@ -1362,7 +1704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>45</v>
       </c>
@@ -1378,6 +1720,18 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>56.4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>51.27</v>
+      </c>
       <c r="M12">
         <v>40</v>
       </c>
@@ -1388,7 +1742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>46</v>
       </c>
@@ -1399,11 +1753,23 @@
         <v>71.430000000000007</v>
       </c>
       <c r="E13">
-        <v>64.489999999999995</v>
+        <v>54.49</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>54.49</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>67.430000000000007</v>
+      </c>
       <c r="M13">
         <v>32</v>
       </c>
@@ -1414,7 +1780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>47</v>
       </c>
@@ -1425,10 +1791,22 @@
         <v>99.57</v>
       </c>
       <c r="E14">
-        <v>104.53</v>
+        <v>52.53</v>
       </c>
       <c r="F14">
         <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>52.53</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>95.57</v>
       </c>
       <c r="M14">
         <v>24</v>
@@ -1448,25 +1826,207 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>99.17</v>
+      </c>
+      <c r="D4">
+        <v>95.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1E-4</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>95.11</v>
+      </c>
+      <c r="D5">
+        <v>89.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1E-3</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>92.25</v>
+      </c>
+      <c r="D6">
+        <v>92.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B7">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>85.57</v>
+      </c>
+      <c r="D7">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="D8">
+        <v>71.319999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="D9">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>60.41</v>
+      </c>
+      <c r="D10">
+        <v>51.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.01</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>56.4</v>
+      </c>
+      <c r="D11">
+        <v>41.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.02</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>54.49</v>
+      </c>
+      <c r="D12">
+        <v>37.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.03</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>52.53</v>
+      </c>
+      <c r="D13">
+        <v>35.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
